--- a/data/trans_camb/P14_3-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P14_3-Estudios-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,12</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,94</t>
+          <t>6,08</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,57</t>
+          <t>5,24</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,75; 6,77</t>
+          <t>0,97; 8,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,77; 8,01</t>
+          <t>3,4; 9,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,08; 6,53</t>
+          <t>2,93; 7,77</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>641,32%</t>
+          <t>347,59%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>839,5%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>747,16%</t>
+          <t>971,01%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>31,06; —</t>
+          <t>-6,39; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>118,3; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>228,73; 3359,65</t>
+          <t>106,55; —</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,21</t>
+          <t>3,99</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,1</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,67</t>
+          <t>3,98</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,81; 6,82</t>
+          <t>0,95; 7,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 5,28</t>
+          <t>1,73; 6,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,75; 5,38</t>
+          <t>2,02; 5,95</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>141,76%</t>
+          <t>106,21%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>118,26%</t>
+          <t>232,48%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>131,3%</t>
+          <t>148,16%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>33,38; 329,35</t>
+          <t>15,62; 308,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-18,33; 367,59</t>
+          <t>40,9; 770,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>41,62; 252,91</t>
+          <t>53,09; 296,38</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,8</t>
+          <t>4,72</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,71</t>
+          <t>5,98</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,27</t>
+          <t>5,4</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,4; 11,0</t>
+          <t>0,77; 8,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,22; 9,13</t>
+          <t>1,78; 9,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,03; 9,08</t>
+          <t>2,27; 8,12</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>181,41%</t>
+          <t>100,47%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>97,5%</t>
+          <t>93,21%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>130,8%</t>
+          <t>96,61%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>61,18; 431,24</t>
+          <t>10,59; 309,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>27,99; 216,4</t>
+          <t>17,41; 211,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>63,37; 242,05</t>
+          <t>31,14; 202,14</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,89</t>
+          <t>5,04</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,33</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>3,79</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,16; 6,75</t>
+          <t>2,33; 8,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,56; 5,96</t>
+          <t>-0,28; 5,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,45; 5,95</t>
+          <t>1,75; 6,35</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>175,95%</t>
+          <t>295,88%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>138,46%</t>
+          <t>73,54%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>155,67%</t>
+          <t>151,34%</t>
         </is>
       </c>
     </row>
@@ -913,25 +913,129 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>89,26; 319,09</t>
+          <t>68,46; 767,1</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>57,54; 241,31</t>
+          <t>-11,83; 208,01</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>93,1; 244,25</t>
+          <t>56,11; 330,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>4,72</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>4,38</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>4,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>3,16; 6,57</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2,93; 5,95</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>3,4; 5,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>166,43%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>139,05%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>151,73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>88,01; 290,3</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>74,77; 231,96</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>96,68; 223,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P14_3-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P14_3-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,205 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>4,2</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>6,08</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>5,24</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>4.12828247557226</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>5.960120382275469</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>5.147448579208495</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>0,97; 8,35</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>3,4; 9,35</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2,93; 7,77</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0.8595505983751708</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>3.296927152365747</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>2.904089236549459</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>347,59%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>971,01%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>8.17176886272291</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>9.185247658119438</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>7.793354022879311</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-6,39; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>106,55; —</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>3.387644997063509</v>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>9.595062173158732</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>3,99</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,92</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,98</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.08205662960609929</v>
+      </c>
+      <c r="D8" s="6" t="inlineStr"/>
+      <c r="E8" s="6" t="n">
+        <v>1.004130166361109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,95; 7,21</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>1,73; 6,34</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2,02; 5,95</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr"/>
+      <c r="D9" s="6" t="inlineStr"/>
+      <c r="E9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>106,21%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>232,48%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>148,16%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>3.892256072983006</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>3.945717104088716</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>3.947445727188317</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>15,62; 308,39</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>40,9; 770,19</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>53,09; 296,38</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0.749477771879559</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>1.767913080389472</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>1.988665795151463</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>4,72</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>5,98</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>5,4</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>7.095812986706805</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>6.30002481824181</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>5.923022113746785</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0,77; 8,77</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>1,78; 9,79</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>2,27; 8,12</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>1.0477404839816</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>2.351081310284363</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>1.482709109503719</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>100,47%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>93,21%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>96,61%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>0.113558634398265</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>0.4327904627537557</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0.5141114704434546</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>10,59; 309,59</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>17,41; 211,46</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>31,14; 202,14</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>2.928938960768637</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>7.898000085457666</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>2.990952898245896</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,202 +769,221 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>5,04</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>2,46</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>3,79</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>4.839106037190464</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>6.013470700108993</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>5.483215501528583</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>2,33; 8,94</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-0,28; 5,5</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>1,75; 6,35</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>1.28014786197922</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>1.792405933147084</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>2.389967027777857</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>295,88%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>73,54%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>151,34%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>8.910728118710292</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>9.659480659870692</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>8.238442883588126</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>68,46; 767,1</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-11,83; 208,01</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>56,11; 330,15</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>1.085127859545115</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.9581508164091502</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>1.017123351113429</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>4,72</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>4,38</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>4,54</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>0.1562266520448654</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>0.1913927084251234</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>0.3377865982640937</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>3,16; 6,57</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>2,93; 5,95</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>3,4; 5,77</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>3.265834845027248</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>2.172245583335268</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>2.041740627799051</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>166,43%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>139,05%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>151,73%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>4.117245628631857</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>4.941877337294095</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>4.548034895578394</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>88,01; 290,3</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>74,77; 231,96</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>96,68; 223,91</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>1.989813058728988</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>3.279977777483225</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>3.133430365071195</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>6.342209076296103</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>6.86494604247172</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>5.890340715101537</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>1.150527237992529</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>1.664468911349542</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>1.395183273441283</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>0.3942640399267636</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>0.7871534961290095</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>0.8224345637111659</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>2.405276961352631</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>3.060189031750173</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>2.204553340945734</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
